--- a/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantList" sheetId="3" r:id="rId1"/>
+    <sheet name="ProcessList" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -367,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -672,7 +672,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
@@ -367,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -672,7 +672,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2978,7 +2978,7 @@
         <v>70</v>
       </c>
       <c r="D33" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -3049,7 +3049,7 @@
         <v>72</v>
       </c>
       <c r="D34" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
@@ -672,7 +672,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -872,7 +872,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>40</v>
       </c>
       <c r="L4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>40</v>
       </c>
       <c r="L5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>40</v>
       </c>
       <c r="L6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>40</v>
       </c>
       <c r="L9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>50</v>
       </c>
       <c r="L11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>50</v>
       </c>
       <c r="L12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>50</v>
       </c>
       <c r="L13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1724,7 +1724,7 @@
         <v>40</v>
       </c>
       <c r="L15" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1795,7 +1795,7 @@
         <v>40</v>
       </c>
       <c r="L16" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M16" s="3">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>40</v>
       </c>
       <c r="L17" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>40</v>
       </c>
       <c r="L18" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>40</v>
       </c>
       <c r="L19" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>40</v>
       </c>
       <c r="L21" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>75</v>
       </c>
       <c r="L22" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>75</v>
       </c>
       <c r="L23" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>75</v>
       </c>
       <c r="L24" s="3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>10</v>
       </c>
       <c r="L25" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M25" s="3">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>10</v>
       </c>
       <c r="L26" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>10</v>
       </c>
       <c r="L27" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M30" s="3">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M31" s="3">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M33" s="3">
         <v>85</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M34" s="3">
         <v>85</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
@@ -672,7 +672,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1277,7 @@
         <v>800</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3">
         <v>40</v>
@@ -1348,7 +1348,7 @@
         <v>800</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3">
         <v>40</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
@@ -672,7 +672,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
         <v>300</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
         <v>40</v>
@@ -1419,7 +1419,7 @@
         <v>600</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
         <v>40</v>
@@ -1490,7 +1490,7 @@
         <v>600</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
         <v>40</v>
@@ -1561,7 +1561,7 @@
         <v>600</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
         <v>40</v>
@@ -1703,7 +1703,7 @@
         <v>300</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
         <v>35</v>
@@ -1987,7 +1987,7 @@
         <v>300</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>35</v>
@@ -2200,7 +2200,7 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>60</v>
@@ -2271,7 +2271,7 @@
         <v>800</v>
       </c>
       <c r="E23" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
         <v>60</v>
@@ -2342,7 +2342,7 @@
         <v>800</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>60</v>
@@ -2626,7 +2626,7 @@
         <v>300</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" s="3">
         <v>35</v>
@@ -2697,7 +2697,7 @@
         <v>500</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>60</v>
@@ -3265,7 +3265,7 @@
         <v>300</v>
       </c>
       <c r="E37" s="3">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="F37" s="3">
         <v>25</v>
@@ -3336,7 +3336,7 @@
         <v>300</v>
       </c>
       <c r="E38" s="3">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F38" s="3">
         <v>25</v>
@@ -3407,7 +3407,7 @@
         <v>300</v>
       </c>
       <c r="E39" s="5">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="F39" s="5">
         <v>25</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
@@ -672,7 +672,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="L29" sqref="L29:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M30" s="3">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M31" s="3">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M33" s="3">
         <v>85</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M34" s="3">
         <v>85</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29:L34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1109,7 @@
         <v>41</v>
       </c>
       <c r="T6" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U6" s="3">
         <v>5</v>
@@ -1180,7 +1180,7 @@
         <v>41</v>
       </c>
       <c r="T7" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U7" s="3">
         <v>5</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="T11" s="3">
-        <v>1E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="U11" s="3">
         <v>5</v>
@@ -1535,7 +1535,7 @@
         <v>27</v>
       </c>
       <c r="T12" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U12" s="3">
         <v>5</v>
@@ -1677,7 +1677,7 @@
         <v>16</v>
       </c>
       <c r="T14" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U14" s="3">
         <v>5</v>
@@ -2032,7 +2032,7 @@
         <v>19</v>
       </c>
       <c r="T19" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U19" s="3">
         <v>5</v>
@@ -2103,7 +2103,7 @@
         <v>19</v>
       </c>
       <c r="T20" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U20" s="3">
         <v>5</v>
@@ -2245,7 +2245,7 @@
         <v>70</v>
       </c>
       <c r="T22" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U22" s="3">
         <v>5</v>
@@ -2316,7 +2316,7 @@
         <v>70</v>
       </c>
       <c r="T23" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U23" s="3">
         <v>5</v>
@@ -2458,7 +2458,7 @@
         <v>80</v>
       </c>
       <c r="T25" s="3">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U25" s="3">
         <v>5</v>
@@ -2529,7 +2529,7 @@
         <v>80</v>
       </c>
       <c r="T26" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U26" s="3">
         <v>5</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>MW</t>
   </si>
@@ -145,18 +145,12 @@
     <t>NoLoadCost</t>
   </si>
   <si>
-    <t>FRANCE_GAS_CHP_BP_DH_1995</t>
-  </si>
-  <si>
     <t>FRANCE_REW_HYD_LG_1999</t>
   </si>
   <si>
     <t>FRANCE_GAS_GT_1997</t>
   </si>
   <si>
-    <t>FRANCE_REW_HYD_LG_2008</t>
-  </si>
-  <si>
     <t>FRANCE_REW_HYD_LG_1960</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>FRANCE_GAS_CC_1998</t>
   </si>
   <si>
-    <t>FRANCE_GAS_CHP_BP_DH_2013</t>
-  </si>
-  <si>
     <t>FRANCE_REW_HYD_LG_1959</t>
   </si>
   <si>
@@ -193,9 +184,6 @@
     <t>FRANCE_REW_PV_UTI_</t>
   </si>
   <si>
-    <t>FRANCE_OIL_ST_2010</t>
-  </si>
-  <si>
     <t>FRANCE_COA_CHP_BP_DH_1961</t>
   </si>
   <si>
@@ -205,21 +193,12 @@
     <t>FRANCE_GAS_CHP_BP_DH_2005</t>
   </si>
   <si>
-    <t>FRANCE_COA_SUB_LN_2014</t>
-  </si>
-  <si>
     <t>FRANCE_NUK_LWR_1984</t>
   </si>
   <si>
-    <t>FRANCE_BIO_ST_</t>
-  </si>
-  <si>
     <t>FRANCE_BIO_ST_1990</t>
   </si>
   <si>
-    <t>FRANCE_BIO_CHP_1968</t>
-  </si>
-  <si>
     <t>FRANCE_BIO_CHP_1997</t>
   </si>
   <si>
@@ -254,9 +233,6 @@
   </si>
   <si>
     <t>REW_WND_ON_3035</t>
-  </si>
-  <si>
-    <t>FRANCE_REW_WND_ON_3035_2004</t>
   </si>
   <si>
     <t>FRANCE_REW_WND_ON_3035_2007</t>
@@ -367,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -383,7 +359,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -669,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -839,13 +815,13 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3">
         <v>300</v>
@@ -857,10 +833,10 @@
         <v>40</v>
       </c>
       <c r="G3" s="3">
-        <v>1975</v>
+        <v>1994</v>
       </c>
       <c r="H3" s="3">
-        <v>2015</v>
+        <v>2034</v>
       </c>
       <c r="I3" s="3">
         <v>7</v>
@@ -910,28 +886,28 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3">
         <v>300</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3">
         <v>40</v>
       </c>
       <c r="G4" s="3">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="H4" s="3">
-        <v>2034</v>
+        <v>2055</v>
       </c>
       <c r="I4" s="3">
         <v>7</v>
@@ -981,28 +957,28 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
         <v>40</v>
       </c>
       <c r="G5" s="3">
-        <v>2015</v>
+        <v>1987</v>
       </c>
       <c r="H5" s="3">
-        <v>2055</v>
+        <v>2027</v>
       </c>
       <c r="I5" s="3">
         <v>7</v>
@@ -1023,22 +999,22 @@
         <v>0</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P5" s="3">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <v>55.7</v>
+        <v>0</v>
       </c>
       <c r="R5" s="3">
-        <v>3376</v>
+        <v>2762</v>
       </c>
       <c r="S5" s="3">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="T5" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U5" s="3">
         <v>5</v>
@@ -1052,28 +1028,28 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3">
         <v>150</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
       </c>
       <c r="G6" s="3">
-        <v>1970</v>
+        <v>2007</v>
       </c>
       <c r="H6" s="3">
-        <v>2010</v>
+        <v>2047</v>
       </c>
       <c r="I6" s="3">
         <v>7</v>
@@ -1109,7 +1085,7 @@
         <v>41</v>
       </c>
       <c r="T6" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U6" s="3">
         <v>5</v>
@@ -1123,28 +1099,28 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3">
         <v>40</v>
       </c>
       <c r="G7" s="3">
-        <v>1987</v>
+        <v>1961</v>
       </c>
       <c r="H7" s="3">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="I7" s="3">
         <v>7</v>
@@ -1165,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="O7" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>35.6</v>
       </c>
       <c r="Q7" s="3">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="R7" s="3">
-        <v>2762</v>
+        <v>2004</v>
       </c>
       <c r="S7" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T7" s="3">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U7" s="3">
         <v>5</v>
@@ -1194,19 +1170,19 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D8" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3">
         <v>40</v>
@@ -1236,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>35.6</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="R8" s="3">
-        <v>2762</v>
+        <v>2004</v>
       </c>
       <c r="S8" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T8" s="3">
         <v>1E-3</v>
@@ -1265,25 +1241,25 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E9" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
         <v>40</v>
       </c>
       <c r="G9" s="3">
-        <v>1961</v>
+        <v>1954</v>
       </c>
       <c r="H9" s="3">
         <v>2020</v>
@@ -1295,7 +1271,7 @@
         <v>95</v>
       </c>
       <c r="K9" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
@@ -1307,22 +1283,22 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="P9" s="3">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>2004</v>
+        <v>2100</v>
       </c>
       <c r="S9" s="3">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="T9" s="3">
-        <v>1E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="U9" s="3">
         <v>5</v>
@@ -1336,28 +1312,28 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E10" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3">
         <v>40</v>
       </c>
       <c r="G10" s="3">
-        <v>2007</v>
+        <v>1990</v>
       </c>
       <c r="H10" s="3">
-        <v>2047</v>
+        <v>2030</v>
       </c>
       <c r="I10" s="3">
         <v>7</v>
@@ -1366,7 +1342,7 @@
         <v>95</v>
       </c>
       <c r="K10" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L10" s="3">
         <v>1</v>
@@ -1378,22 +1354,22 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="P10" s="3">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>2004</v>
+        <v>2100</v>
       </c>
       <c r="S10" s="3">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="T10" s="3">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U10" s="3">
         <v>5</v>
@@ -1407,28 +1383,28 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E11" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G11" s="3">
-        <v>1954</v>
+        <v>2001</v>
       </c>
       <c r="H11" s="3">
-        <v>2020</v>
+        <v>2036</v>
       </c>
       <c r="I11" s="3">
         <v>7</v>
@@ -1437,10 +1413,10 @@
         <v>95</v>
       </c>
       <c r="K11" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L11" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
@@ -1449,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="3">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="P11" s="3">
         <v>0</v>
@@ -1458,48 +1434,48 @@
         <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>2100</v>
+        <v>1098</v>
       </c>
       <c r="S11" s="3">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="T11" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U11" s="3">
         <v>5</v>
       </c>
       <c r="V11" s="3">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="W11" s="4">
-        <v>320</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3">
-        <v>1990</v>
+        <v>2013</v>
       </c>
       <c r="H12" s="3">
-        <v>2030</v>
+        <v>2048</v>
       </c>
       <c r="I12" s="3">
         <v>7</v>
@@ -1508,10 +1484,10 @@
         <v>95</v>
       </c>
       <c r="K12" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L12" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1520,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -1529,48 +1505,48 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>2100</v>
+        <v>1098</v>
       </c>
       <c r="S12" s="3">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="T12" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U12" s="3">
         <v>5</v>
       </c>
       <c r="V12" s="3">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="W12" s="4">
-        <v>320</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G13" s="3">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="H13" s="3">
-        <v>2054</v>
+        <v>2036</v>
       </c>
       <c r="I13" s="3">
         <v>7</v>
@@ -1579,10 +1555,10 @@
         <v>95</v>
       </c>
       <c r="K13" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L13" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -1591,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="Q13" s="3">
-        <v>0</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="R13" s="3">
-        <v>2100</v>
+        <v>910</v>
       </c>
       <c r="S13" s="3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T13" s="3">
         <v>1E-3</v>
@@ -1612,36 +1588,36 @@
         <v>5</v>
       </c>
       <c r="V13" s="3">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="W13" s="4">
-        <v>320</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3">
         <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
         <v>35</v>
       </c>
       <c r="G14" s="3">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="H14" s="3">
-        <v>2036</v>
+        <v>2027</v>
       </c>
       <c r="I14" s="3">
         <v>7</v>
@@ -1653,7 +1629,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="3">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1662,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1671,10 +1647,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>1098</v>
+        <v>800</v>
       </c>
       <c r="S14" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T14" s="3">
         <v>3.0000000000000001E-3</v>
@@ -1691,13 +1667,13 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D15" s="3">
         <v>300</v>
@@ -1709,10 +1685,10 @@
         <v>35</v>
       </c>
       <c r="G15" s="3">
-        <v>2013</v>
+        <v>1998</v>
       </c>
       <c r="H15" s="3">
-        <v>2048</v>
+        <v>2033</v>
       </c>
       <c r="I15" s="3">
         <v>7</v>
@@ -1724,7 +1700,7 @@
         <v>40</v>
       </c>
       <c r="L15" s="3">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1733,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1742,13 +1718,13 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>1098</v>
+        <v>800</v>
       </c>
       <c r="S15" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T15" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U15" s="3">
         <v>5</v>
@@ -1762,28 +1738,28 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3">
         <v>300</v>
       </c>
       <c r="E16" s="3">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3">
         <v>35</v>
       </c>
       <c r="G16" s="3">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="H16" s="3">
-        <v>2030</v>
+        <v>2039</v>
       </c>
       <c r="I16" s="3">
         <v>7</v>
@@ -1795,7 +1771,7 @@
         <v>40</v>
       </c>
       <c r="L16" s="3">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="M16" s="3">
         <v>0</v>
@@ -1804,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="P16" s="3">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="3">
-        <v>38.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="R16" s="3">
-        <v>910</v>
+        <v>800</v>
       </c>
       <c r="S16" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="T16" s="3">
         <v>1E-3</v>
@@ -1833,28 +1809,28 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G17" s="3">
-        <v>2001</v>
+        <v>1983</v>
       </c>
       <c r="H17" s="3">
-        <v>2036</v>
+        <v>2043</v>
       </c>
       <c r="I17" s="3">
         <v>7</v>
@@ -1863,10 +1839,10 @@
         <v>95</v>
       </c>
       <c r="K17" s="3">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="L17" s="3">
-        <v>1.5</v>
+        <v>0.05</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1875,57 +1851,57 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="P17" s="3">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>38.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>910</v>
+        <v>5500</v>
       </c>
       <c r="S17" s="3">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="T17" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U17" s="3">
         <v>5</v>
       </c>
       <c r="V17" s="3">
-        <v>8000</v>
+        <v>3000000</v>
       </c>
       <c r="W17" s="4">
-        <v>2550</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D18" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E18" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G18" s="3">
-        <v>2012</v>
+        <v>1984</v>
       </c>
       <c r="H18" s="3">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="I18" s="3">
         <v>7</v>
@@ -1934,10 +1910,10 @@
         <v>95</v>
       </c>
       <c r="K18" s="3">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="L18" s="3">
-        <v>1.5</v>
+        <v>0.05</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1946,57 +1922,57 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="P18" s="3">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>38.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>910</v>
+        <v>5500</v>
       </c>
       <c r="S18" s="3">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="T18" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U18" s="3">
         <v>5</v>
       </c>
       <c r="V18" s="3">
-        <v>8000</v>
+        <v>3000000</v>
       </c>
       <c r="W18" s="4">
-        <v>2550</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G19" s="3">
         <v>1992</v>
       </c>
       <c r="H19" s="3">
-        <v>2027</v>
+        <v>2052</v>
       </c>
       <c r="I19" s="3">
         <v>7</v>
@@ -2005,10 +1981,10 @@
         <v>95</v>
       </c>
       <c r="K19" s="3">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="L19" s="3">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
@@ -2026,48 +2002,48 @@
         <v>0</v>
       </c>
       <c r="R19" s="3">
-        <v>800</v>
+        <v>5500</v>
       </c>
       <c r="S19" s="3">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="T19" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U19" s="3">
         <v>5</v>
       </c>
       <c r="V19" s="3">
-        <v>8000</v>
+        <v>3000000</v>
       </c>
       <c r="W19" s="4">
-        <v>2550</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G20" s="3">
-        <v>1998</v>
+        <v>1981</v>
       </c>
       <c r="H20" s="3">
-        <v>2033</v>
+        <v>2011</v>
       </c>
       <c r="I20" s="3">
         <v>7</v>
@@ -2076,7 +2052,7 @@
         <v>95</v>
       </c>
       <c r="K20" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L20" s="3">
         <v>5</v>
@@ -2088,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -2097,48 +2073,48 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="S20" s="3">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="T20" s="3">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U20" s="3">
         <v>5</v>
       </c>
       <c r="V20" s="3">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="W20" s="4">
-        <v>2550</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D21" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E21" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G21" s="3">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="H21" s="3">
-        <v>2039</v>
+        <v>2026</v>
       </c>
       <c r="I21" s="3">
         <v>7</v>
@@ -2147,7 +2123,7 @@
         <v>95</v>
       </c>
       <c r="K21" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L21" s="3">
         <v>5</v>
@@ -2159,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -2168,60 +2144,60 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="S21" s="3">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="T21" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="U21" s="3">
         <v>5</v>
       </c>
       <c r="V21" s="3">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="W21" s="4">
-        <v>2550</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G22" s="3">
-        <v>1983</v>
+        <v>2008</v>
       </c>
       <c r="H22" s="3">
         <v>2043</v>
       </c>
       <c r="I22" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" s="3">
         <v>95</v>
       </c>
       <c r="K22" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -2230,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -2239,60 +2215,60 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>5500</v>
+        <v>2039</v>
       </c>
       <c r="S22" s="3">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="T22" s="3">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U22" s="3">
         <v>5</v>
       </c>
       <c r="V22" s="3">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="W22" s="4">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F23" s="3">
         <v>60</v>
       </c>
       <c r="G23" s="3">
-        <v>1984</v>
+        <v>1959</v>
       </c>
       <c r="H23" s="3">
-        <v>2044</v>
+        <v>2019</v>
       </c>
       <c r="I23" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
         <v>95</v>
       </c>
       <c r="K23" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0.05</v>
+        <v>20</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -2301,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -2310,60 +2286,60 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="S23" s="3">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="T23" s="3">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U23" s="3">
         <v>5</v>
       </c>
       <c r="V23" s="3">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="W23" s="4">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F24" s="3">
         <v>60</v>
       </c>
       <c r="G24" s="3">
-        <v>1992</v>
+        <v>1963</v>
       </c>
       <c r="H24" s="3">
-        <v>2052</v>
+        <v>2023</v>
       </c>
       <c r="I24" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3">
         <v>95</v>
       </c>
       <c r="K24" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>0.05</v>
+        <v>20</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -2372,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -2381,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="S24" s="3">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="T24" s="3">
         <v>1E-3</v>
@@ -2393,48 +2369,48 @@
         <v>5</v>
       </c>
       <c r="V24" s="3">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="W24" s="4">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="D25" s="3">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="E25" s="3">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3">
+        <v>60</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1996</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2056</v>
+      </c>
+      <c r="I25" s="3">
         <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>30</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1981</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2011</v>
-      </c>
-      <c r="I25" s="3">
-        <v>7</v>
       </c>
       <c r="J25" s="3">
         <v>95</v>
       </c>
       <c r="K25" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L25" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M25" s="3">
         <v>0</v>
@@ -2443,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="3">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="P25" s="3">
         <v>0</v>
@@ -2455,66 +2431,66 @@
         <v>2000</v>
       </c>
       <c r="S25" s="3">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="T25" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U25" s="3">
         <v>5</v>
       </c>
       <c r="V25" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W25" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D26" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G26" s="3">
-        <v>1996</v>
+        <v>1982</v>
       </c>
       <c r="H26" s="3">
-        <v>2026</v>
+        <v>2042</v>
       </c>
       <c r="I26" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>95</v>
       </c>
       <c r="K26" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -2523,69 +2499,69 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>2000</v>
+        <v>3293</v>
       </c>
       <c r="S26" s="3">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="T26" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="U26" s="3">
         <v>5</v>
       </c>
       <c r="V26" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W26" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D27" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G27" s="3">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="H27" s="3">
-        <v>2040</v>
+        <v>2057</v>
       </c>
       <c r="I27" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>95</v>
       </c>
       <c r="K27" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -2594,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>2000</v>
+        <v>3293</v>
       </c>
       <c r="S27" s="3">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="T27" s="3">
         <v>1E-3</v>
@@ -2606,36 +2582,36 @@
         <v>5</v>
       </c>
       <c r="V27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W27" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D28" s="3">
         <v>300</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G28" s="3">
-        <v>2008</v>
+        <v>1990</v>
       </c>
       <c r="H28" s="3">
-        <v>2043</v>
+        <v>2010</v>
       </c>
       <c r="I28" s="3">
         <v>6</v>
@@ -2656,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P28" s="3">
         <v>0</v>
@@ -2665,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <v>2039</v>
+        <v>1942</v>
       </c>
       <c r="S28" s="3">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="T28" s="3">
         <v>1E-3</v>
@@ -2685,31 +2661,31 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E29" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G29" s="3">
-        <v>1959</v>
+        <v>2014</v>
       </c>
       <c r="H29" s="3">
-        <v>2019</v>
+        <v>2034</v>
       </c>
       <c r="I29" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J29" s="3">
         <v>95</v>
@@ -2718,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2736,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
-        <v>2000</v>
+        <v>1942</v>
       </c>
       <c r="S29" s="3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="T29" s="3">
         <v>1E-3</v>
@@ -2756,31 +2732,31 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D30" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E30" s="3">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F30" s="3">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G30" s="3">
-        <v>1963</v>
+        <v>1998</v>
       </c>
       <c r="H30" s="3">
         <v>2023</v>
       </c>
       <c r="I30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3">
         <v>95</v>
@@ -2789,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M30" s="3">
         <v>0</v>
@@ -2807,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="R30" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="S30" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T30" s="3">
         <v>1E-3</v>
@@ -2826,641 +2802,73 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="3">
-        <v>500</v>
-      </c>
-      <c r="E31" s="3">
-        <v>14</v>
-      </c>
-      <c r="F31" s="3">
-        <v>60</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1996</v>
-      </c>
-      <c r="H31" s="3">
-        <v>2056</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3">
+      <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="5">
+        <v>300</v>
+      </c>
+      <c r="E31" s="5">
+        <v>80</v>
+      </c>
+      <c r="F31" s="5">
+        <v>25</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2003</v>
+      </c>
+      <c r="H31" s="5">
+        <v>2028</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
         <v>95</v>
       </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3">
-        <v>20</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
         <v>100</v>
       </c>
-      <c r="P31" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>0</v>
-      </c>
-      <c r="R31" s="3">
-        <v>2000</v>
-      </c>
-      <c r="S31" s="3">
-        <v>29</v>
-      </c>
-      <c r="T31" s="3">
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5">
+        <v>1700</v>
+      </c>
+      <c r="S31" s="5">
+        <v>26</v>
+      </c>
+      <c r="T31" s="5">
         <v>1E-3</v>
       </c>
-      <c r="U31" s="3">
-        <v>5</v>
-      </c>
-      <c r="V31" s="3">
-        <v>0</v>
-      </c>
-      <c r="W31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="3">
-        <v>500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>12</v>
-      </c>
-      <c r="F32" s="3">
-        <v>60</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2015</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2075</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3">
-        <v>95</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>20</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>29</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U32" s="3">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="3">
-        <v>100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>60</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1982</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2042</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>95</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>20</v>
-      </c>
-      <c r="M33" s="3">
-        <v>85</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>80</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>3293</v>
-      </c>
-      <c r="S33" s="3">
-        <v>48</v>
-      </c>
-      <c r="T33" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U33" s="3">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="3">
-        <v>100</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>60</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1997</v>
-      </c>
-      <c r="H34" s="3">
-        <v>2057</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
-        <v>95</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3">
-        <v>20</v>
-      </c>
-      <c r="M34" s="3">
-        <v>85</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3">
-        <v>80</v>
-      </c>
-      <c r="P34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>0</v>
-      </c>
-      <c r="R34" s="3">
-        <v>3293</v>
-      </c>
-      <c r="S34" s="3">
-        <v>48</v>
-      </c>
-      <c r="T34" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U34" s="3">
-        <v>5</v>
-      </c>
-      <c r="V34" s="3">
-        <v>0</v>
-      </c>
-      <c r="W34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="3">
-        <v>300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3">
-        <v>20</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1990</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2010</v>
-      </c>
-      <c r="I35" s="3">
-        <v>6</v>
-      </c>
-      <c r="J35" s="3">
-        <v>95</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>1942</v>
-      </c>
-      <c r="S35" s="3">
-        <v>19</v>
-      </c>
-      <c r="T35" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U35" s="3">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="3">
-        <v>300</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3">
-        <v>20</v>
-      </c>
-      <c r="G36" s="3">
-        <v>2014</v>
-      </c>
-      <c r="H36" s="3">
-        <v>2034</v>
-      </c>
-      <c r="I36" s="3">
-        <v>6</v>
-      </c>
-      <c r="J36" s="3">
-        <v>95</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <v>100</v>
-      </c>
-      <c r="P36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>0</v>
-      </c>
-      <c r="R36" s="3">
-        <v>1942</v>
-      </c>
-      <c r="S36" s="3">
-        <v>19</v>
-      </c>
-      <c r="T36" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U36" s="3">
-        <v>5</v>
-      </c>
-      <c r="V36" s="3">
-        <v>0</v>
-      </c>
-      <c r="W36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="3">
-        <v>300</v>
-      </c>
-      <c r="E37" s="3">
-        <v>80</v>
-      </c>
-      <c r="F37" s="3">
-        <v>25</v>
-      </c>
-      <c r="G37" s="3">
-        <v>2014</v>
-      </c>
-      <c r="H37" s="3">
-        <v>2039</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
-        <v>95</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0</v>
-      </c>
-      <c r="M37" s="3">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3">
-        <v>100</v>
-      </c>
-      <c r="P37" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>0</v>
-      </c>
-      <c r="R37" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S37" s="3">
-        <v>26</v>
-      </c>
-      <c r="T37" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U37" s="3">
-        <v>5</v>
-      </c>
-      <c r="V37" s="3">
-        <v>0</v>
-      </c>
-      <c r="W37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="3">
-        <v>300</v>
-      </c>
-      <c r="E38" s="3">
-        <v>80</v>
-      </c>
-      <c r="F38" s="3">
-        <v>25</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1998</v>
-      </c>
-      <c r="H38" s="3">
-        <v>2023</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3">
-        <v>95</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3">
-        <v>0</v>
-      </c>
-      <c r="M38" s="3">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3">
-        <v>100</v>
-      </c>
-      <c r="P38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>0</v>
-      </c>
-      <c r="R38" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S38" s="3">
-        <v>26</v>
-      </c>
-      <c r="T38" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U38" s="3">
-        <v>5</v>
-      </c>
-      <c r="V38" s="3">
-        <v>0</v>
-      </c>
-      <c r="W38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="5">
-        <v>300</v>
-      </c>
-      <c r="E39" s="5">
-        <v>80</v>
-      </c>
-      <c r="F39" s="5">
-        <v>25</v>
-      </c>
-      <c r="G39" s="5">
-        <v>2003</v>
-      </c>
-      <c r="H39" s="5">
-        <v>2028</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5">
-        <v>95</v>
-      </c>
-      <c r="K39" s="5">
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5">
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
-        <v>100</v>
-      </c>
-      <c r="P39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>0</v>
-      </c>
-      <c r="R39" s="5">
-        <v>1700</v>
-      </c>
-      <c r="S39" s="5">
-        <v>26</v>
-      </c>
-      <c r="T39" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="U39" s="5">
-        <v>5</v>
-      </c>
-      <c r="V39" s="5">
-        <v>0</v>
-      </c>
-      <c r="W39" s="2">
+      <c r="U31" s="5">
+        <v>5</v>
+      </c>
+      <c r="V31" s="5">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
@@ -648,7 +648,7 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -824,7 +824,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="3">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
@@ -895,7 +895,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="3">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3">
         <v>10</v>
@@ -904,10 +904,10 @@
         <v>40</v>
       </c>
       <c r="G4" s="3">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="H4" s="3">
-        <v>2055</v>
+        <v>2045</v>
       </c>
       <c r="I4" s="3">
         <v>7</v>
@@ -1108,7 +1108,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3">
         <v>10</v>
@@ -1179,7 +1179,7 @@
         <v>67</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>
@@ -1534,7 +1534,7 @@
         <v>58</v>
       </c>
       <c r="D13" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <v>40</v>
@@ -898,7 +898,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>40</v>
@@ -1040,7 +1040,7 @@
         <v>150</v>
       </c>
       <c r="E6" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -1111,7 +1111,7 @@
         <v>150</v>
       </c>
       <c r="E7" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3">
         <v>40</v>
@@ -1182,7 +1182,7 @@
         <v>150</v>
       </c>
       <c r="E8" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <v>40</v>
@@ -1395,7 +1395,7 @@
         <v>300</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3">
         <v>35</v>
@@ -1466,7 +1466,7 @@
         <v>300</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
         <v>35</v>
@@ -1537,7 +1537,7 @@
         <v>150</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
         <v>35</v>
@@ -1750,7 +1750,7 @@
         <v>300</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
         <v>35</v>
@@ -1821,7 +1821,7 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
         <v>60</v>
@@ -1892,7 +1892,7 @@
         <v>800</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
         <v>60</v>
@@ -1963,7 +1963,7 @@
         <v>800</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3">
         <v>60</v>
@@ -2034,7 +2034,7 @@
         <v>150</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3">
         <v>30</v>
@@ -2105,7 +2105,7 @@
         <v>150</v>
       </c>
       <c r="E21" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
         <v>30</v>
@@ -2176,7 +2176,7 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
         <v>35</v>
@@ -2247,7 +2247,7 @@
         <v>500</v>
       </c>
       <c r="E23" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3">
         <v>60</v>
@@ -2318,7 +2318,7 @@
         <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
         <v>60</v>
@@ -2389,7 +2389,7 @@
         <v>500</v>
       </c>
       <c r="E25" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
         <v>60</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneB2.xlsx
@@ -648,7 +648,7 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1821,7 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
         <v>60</v>
@@ -1892,7 +1892,7 @@
         <v>800</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3">
         <v>60</v>
@@ -1963,7 +1963,7 @@
         <v>800</v>
       </c>
       <c r="E19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>60</v>
